--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnas-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnas-Tshr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>200.111107</v>
+        <v>236.082283</v>
       </c>
       <c r="H2">
-        <v>400.222214</v>
+        <v>472.164566</v>
       </c>
       <c r="I2">
-        <v>0.2254470154375879</v>
+        <v>0.356044175747874</v>
       </c>
       <c r="J2">
-        <v>0.1817575604364342</v>
+        <v>0.2923054205394457</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7262925</v>
+        <v>0.299213</v>
       </c>
       <c r="N2">
-        <v>1.452585</v>
+        <v>0.598426</v>
       </c>
       <c r="O2">
-        <v>0.2952325527432663</v>
+        <v>0.09740004925129409</v>
       </c>
       <c r="P2">
-        <v>0.2455349483544712</v>
+        <v>0.07136653219636822</v>
       </c>
       <c r="Q2">
-        <v>145.3391961807975</v>
+        <v>70.638888143279</v>
       </c>
       <c r="R2">
-        <v>581.35678472319</v>
+        <v>282.555552573116</v>
       </c>
       <c r="S2">
-        <v>0.06655929787598966</v>
+        <v>0.03467872025347934</v>
       </c>
       <c r="T2">
-        <v>0.04462783321479456</v>
+        <v>0.02086082420610131</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>200.111107</v>
+        <v>236.082283</v>
       </c>
       <c r="H3">
-        <v>400.222214</v>
+        <v>472.164566</v>
       </c>
       <c r="I3">
-        <v>0.2254470154375879</v>
+        <v>0.356044175747874</v>
       </c>
       <c r="J3">
-        <v>0.1817575604364342</v>
+        <v>0.2923054205394457</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.225084</v>
       </c>
       <c r="O3">
-        <v>0.1659958747772335</v>
+        <v>0.1329300998920193</v>
       </c>
       <c r="P3">
-        <v>0.2070797486342548</v>
+        <v>0.1460999300318762</v>
       </c>
       <c r="Q3">
-        <v>81.71763846932934</v>
+        <v>96.40687586225735</v>
       </c>
       <c r="R3">
-        <v>490.305830815976</v>
+        <v>578.4412551735441</v>
       </c>
       <c r="S3">
-        <v>0.03742327454347889</v>
+        <v>0.04732898784813658</v>
       </c>
       <c r="T3">
-        <v>0.03763830992755218</v>
+        <v>0.04270580148875117</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>200.111107</v>
+        <v>236.082283</v>
       </c>
       <c r="H4">
-        <v>400.222214</v>
+        <v>472.164566</v>
       </c>
       <c r="I4">
-        <v>0.2254470154375879</v>
+        <v>0.356044175747874</v>
       </c>
       <c r="J4">
-        <v>0.1817575604364342</v>
+        <v>0.2923054205394457</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1071516666666667</v>
+        <v>0.04598133333333334</v>
       </c>
       <c r="N4">
-        <v>0.321455</v>
+        <v>0.137944</v>
       </c>
       <c r="O4">
-        <v>0.04355636342203115</v>
+        <v>0.01496787950826614</v>
       </c>
       <c r="P4">
-        <v>0.05433653577813797</v>
+        <v>0.01645079745414774</v>
       </c>
       <c r="Q4">
-        <v>21.44223863356167</v>
+        <v>10.85537814871734</v>
       </c>
       <c r="R4">
-        <v>128.65343180137</v>
+        <v>65.13226889230401</v>
       </c>
       <c r="S4">
-        <v>0.009819652136811846</v>
+        <v>0.005329226322214112</v>
       </c>
       <c r="T4">
-        <v>0.009876076185601381</v>
+        <v>0.004808657268043899</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>200.111107</v>
+        <v>236.082283</v>
       </c>
       <c r="H5">
-        <v>400.222214</v>
+        <v>472.164566</v>
       </c>
       <c r="I5">
-        <v>0.2254470154375879</v>
+        <v>0.356044175747874</v>
       </c>
       <c r="J5">
-        <v>0.1817575604364342</v>
+        <v>0.2923054205394457</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7379140000000001</v>
+        <v>0.5315415</v>
       </c>
       <c r="N5">
-        <v>1.475828</v>
+        <v>1.063083</v>
       </c>
       <c r="O5">
-        <v>0.29995660691112</v>
+        <v>0.1730278038691726</v>
       </c>
       <c r="P5">
-        <v>0.2494637847424299</v>
+        <v>0.1267801652115913</v>
       </c>
       <c r="Q5">
-        <v>147.664787410798</v>
+        <v>125.4875308292445</v>
       </c>
       <c r="R5">
-        <v>590.6591496431921</v>
+        <v>501.950123316978</v>
       </c>
       <c r="S5">
-        <v>0.06762432178889777</v>
+        <v>0.06160554181006436</v>
       </c>
       <c r="T5">
-        <v>0.04534192893202382</v>
+        <v>0.03705852950823459</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>200.111107</v>
+        <v>236.082283</v>
       </c>
       <c r="H6">
-        <v>400.222214</v>
+        <v>472.164566</v>
       </c>
       <c r="I6">
-        <v>0.2254470154375879</v>
+        <v>0.356044175747874</v>
       </c>
       <c r="J6">
-        <v>0.1817575604364342</v>
+        <v>0.2923054205394457</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1998293333333333</v>
+        <v>1.667958333333333</v>
       </c>
       <c r="N6">
-        <v>0.599488</v>
+        <v>5.003875</v>
       </c>
       <c r="O6">
-        <v>0.08122915243236724</v>
+        <v>0.5429550982603464</v>
       </c>
       <c r="P6">
-        <v>0.1013333162046457</v>
+        <v>0.5967474780408973</v>
       </c>
       <c r="Q6">
-        <v>39.98806910440533</v>
+        <v>393.7754112822083</v>
       </c>
       <c r="R6">
-        <v>239.928414626432</v>
+        <v>2362.65246769325</v>
       </c>
       <c r="S6">
-        <v>0.01831286998240208</v>
+        <v>0.193316000428211</v>
       </c>
       <c r="T6">
-        <v>0.01841809634429019</v>
+        <v>0.1744325225245981</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>200.111107</v>
+        <v>236.082283</v>
       </c>
       <c r="H7">
-        <v>400.222214</v>
+        <v>472.164566</v>
       </c>
       <c r="I7">
-        <v>0.2254470154375879</v>
+        <v>0.356044175747874</v>
       </c>
       <c r="J7">
-        <v>0.1817575604364342</v>
+        <v>0.2923054205394457</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2805203333333333</v>
+        <v>0.118945</v>
       </c>
       <c r="N7">
-        <v>0.841561</v>
+        <v>0.356835</v>
       </c>
       <c r="O7">
-        <v>0.1140294497139816</v>
+        <v>0.0387190692189015</v>
       </c>
       <c r="P7">
-        <v>0.1422516662860605</v>
+        <v>0.04255509706511925</v>
       </c>
       <c r="Q7">
-        <v>56.13523443934233</v>
+        <v>28.080807151435</v>
       </c>
       <c r="R7">
-        <v>336.811406636054</v>
+        <v>168.48484290861</v>
       </c>
       <c r="S7">
-        <v>0.02570759911000767</v>
+        <v>0.01378569908576866</v>
       </c>
       <c r="T7">
-        <v>0.02585531583217211</v>
+        <v>0.01243908554371661</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>352.655433</v>
       </c>
       <c r="I8">
-        <v>0.1324349524948329</v>
+        <v>0.1772841109604352</v>
       </c>
       <c r="J8">
-        <v>0.1601555059528365</v>
+        <v>0.2183202681257223</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7262925</v>
+        <v>0.299213</v>
       </c>
       <c r="N8">
-        <v>1.452585</v>
+        <v>0.598426</v>
       </c>
       <c r="O8">
-        <v>0.2952325527432663</v>
+        <v>0.09740004925129409</v>
       </c>
       <c r="P8">
-        <v>0.2455349483544712</v>
+        <v>0.07136653219636822</v>
       </c>
       <c r="Q8">
-        <v>85.3769986907175</v>
+        <v>35.173030024743</v>
       </c>
       <c r="R8">
-        <v>512.2619921443051</v>
+        <v>211.038180148458</v>
       </c>
       <c r="S8">
-        <v>0.03909910909748272</v>
+        <v>0.01726748113901827</v>
       </c>
       <c r="T8">
-        <v>0.03932377388281391</v>
+        <v>0.0155807604443141</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>352.655433</v>
       </c>
       <c r="I9">
-        <v>0.1324349524948329</v>
+        <v>0.1772841109604352</v>
       </c>
       <c r="J9">
-        <v>0.1601555059528365</v>
+        <v>0.2183202681257223</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.225084</v>
       </c>
       <c r="O9">
-        <v>0.1659958747772335</v>
+        <v>0.1329300998920193</v>
       </c>
       <c r="P9">
-        <v>0.2070797486342548</v>
+        <v>0.1460999300318762</v>
       </c>
       <c r="Q9">
         <v>48.003614275708</v>
@@ -1013,10 +1013,10 @@
         <v>432.032528481372</v>
       </c>
       <c r="S9">
-        <v>0.02198365579046115</v>
+        <v>0.02356639457923849</v>
       </c>
       <c r="T9">
-        <v>0.03316496191510528</v>
+        <v>0.03189657589770849</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>352.655433</v>
       </c>
       <c r="I10">
-        <v>0.1324349524948329</v>
+        <v>0.1772841109604352</v>
       </c>
       <c r="J10">
-        <v>0.1601555059528365</v>
+        <v>0.2183202681257223</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.1071516666666667</v>
+        <v>0.04598133333333334</v>
       </c>
       <c r="N10">
-        <v>0.321455</v>
+        <v>0.137944</v>
       </c>
       <c r="O10">
-        <v>0.04355636342203115</v>
+        <v>0.01496787950826614</v>
       </c>
       <c r="P10">
-        <v>0.05433653577813797</v>
+        <v>0.01645079745414774</v>
       </c>
       <c r="Q10">
-        <v>12.595872468335</v>
+        <v>5.405189005528</v>
       </c>
       <c r="R10">
-        <v>113.362852215015</v>
+        <v>48.646701049752</v>
       </c>
       <c r="S10">
-        <v>0.005768384920644372</v>
+        <v>0.002653567211585879</v>
       </c>
       <c r="T10">
-        <v>0.008702295379272086</v>
+        <v>0.003591542511071485</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>352.655433</v>
       </c>
       <c r="I11">
-        <v>0.1324349524948329</v>
+        <v>0.1772841109604352</v>
       </c>
       <c r="J11">
-        <v>0.1601555059528365</v>
+        <v>0.2183202681257223</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7379140000000001</v>
+        <v>0.5315415</v>
       </c>
       <c r="N11">
-        <v>1.475828</v>
+        <v>1.063083</v>
       </c>
       <c r="O11">
-        <v>0.29995660691112</v>
+        <v>0.1730278038691726</v>
       </c>
       <c r="P11">
-        <v>0.2494637847424299</v>
+        <v>0.1267801652115913</v>
       </c>
       <c r="Q11">
-        <v>86.743127062254</v>
+        <v>62.4836659466565</v>
       </c>
       <c r="R11">
-        <v>520.4587623735241</v>
+        <v>374.901995679939</v>
       </c>
       <c r="S11">
-        <v>0.03972473898678545</v>
+        <v>0.03067508038038281</v>
       </c>
       <c r="T11">
-        <v>0.03995299866233335</v>
+        <v>0.02767867966201798</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>352.655433</v>
       </c>
       <c r="I12">
-        <v>0.1324349524948329</v>
+        <v>0.1772841109604352</v>
       </c>
       <c r="J12">
-        <v>0.1601555059528365</v>
+        <v>0.2183202681257223</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1998293333333333</v>
+        <v>1.667958333333333</v>
       </c>
       <c r="N12">
-        <v>0.599488</v>
+        <v>5.003875</v>
       </c>
       <c r="O12">
-        <v>0.08122915243236724</v>
+        <v>0.5429550982603464</v>
       </c>
       <c r="P12">
-        <v>0.1013333162046457</v>
+        <v>0.5967474780408973</v>
       </c>
       <c r="Q12">
-        <v>23.490300024256</v>
+        <v>196.071522755875</v>
       </c>
       <c r="R12">
-        <v>211.412700218304</v>
+        <v>1764.643704802875</v>
       </c>
       <c r="S12">
-        <v>0.01075757894357609</v>
+        <v>0.09625731188652124</v>
       </c>
       <c r="T12">
-        <v>0.01622908852663379</v>
+        <v>0.1302820694092373</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>352.655433</v>
       </c>
       <c r="I13">
-        <v>0.1324349524948329</v>
+        <v>0.1772841109604352</v>
       </c>
       <c r="J13">
-        <v>0.1601555059528365</v>
+        <v>0.2183202681257223</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2805203333333333</v>
+        <v>0.118945</v>
       </c>
       <c r="N13">
-        <v>0.841561</v>
+        <v>0.356835</v>
       </c>
       <c r="O13">
-        <v>0.1140294497139816</v>
+        <v>0.0387190692189015</v>
       </c>
       <c r="P13">
-        <v>0.1422516662860605</v>
+        <v>0.04255509706511925</v>
       </c>
       <c r="Q13">
-        <v>32.975673205657</v>
+        <v>13.982200159395</v>
       </c>
       <c r="R13">
-        <v>296.781058850913</v>
+        <v>125.839801434555</v>
       </c>
       <c r="S13">
-        <v>0.01510148475588309</v>
+        <v>0.006864275763688505</v>
       </c>
       <c r="T13">
-        <v>0.02278238758667806</v>
+        <v>0.009290640201372973</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>82.58969233333333</v>
+        <v>65.58120733333334</v>
       </c>
       <c r="H14">
-        <v>247.769077</v>
+        <v>196.743622</v>
       </c>
       <c r="I14">
-        <v>0.09304630773172745</v>
+        <v>0.09890537575641412</v>
       </c>
       <c r="J14">
-        <v>0.1125222474210465</v>
+        <v>0.1217991168934175</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7262925</v>
+        <v>0.299213</v>
       </c>
       <c r="N14">
-        <v>1.452585</v>
+        <v>0.598426</v>
       </c>
       <c r="O14">
-        <v>0.2952325527432663</v>
+        <v>0.09740004925129409</v>
       </c>
       <c r="P14">
-        <v>0.2455349483544712</v>
+        <v>0.07136653219636822</v>
       </c>
       <c r="Q14">
-        <v>59.9842741190075</v>
+        <v>19.62274978982867</v>
       </c>
       <c r="R14">
-        <v>359.905644714045</v>
+        <v>117.736498738972</v>
       </c>
       <c r="S14">
-        <v>0.02747029895497341</v>
+        <v>0.009633388469892482</v>
       </c>
       <c r="T14">
-        <v>0.02762814420925569</v>
+        <v>0.008692380597263296</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>82.58969233333333</v>
+        <v>65.58120733333334</v>
       </c>
       <c r="H15">
-        <v>247.769077</v>
+        <v>196.743622</v>
       </c>
       <c r="I15">
-        <v>0.09304630773172745</v>
+        <v>0.09890537575641412</v>
       </c>
       <c r="J15">
-        <v>0.1125222474210465</v>
+        <v>0.1217991168934175</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.225084</v>
       </c>
       <c r="O15">
-        <v>0.1659958747772335</v>
+        <v>0.1329300998920193</v>
       </c>
       <c r="P15">
-        <v>0.2070797486342548</v>
+        <v>0.1460999300318762</v>
       </c>
       <c r="Q15">
-        <v>33.72643688082978</v>
+        <v>26.78082926824978</v>
       </c>
       <c r="R15">
-        <v>303.537931927468</v>
+        <v>241.027463414248</v>
       </c>
       <c r="S15">
-        <v>0.01544530324671977</v>
+        <v>0.01314750147915784</v>
       </c>
       <c r="T15">
-        <v>0.02330107871171174</v>
+        <v>0.01779484245607261</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>82.58969233333333</v>
+        <v>65.58120733333334</v>
       </c>
       <c r="H16">
-        <v>247.769077</v>
+        <v>196.743622</v>
       </c>
       <c r="I16">
-        <v>0.09304630773172745</v>
+        <v>0.09890537575641412</v>
       </c>
       <c r="J16">
-        <v>0.1125222474210465</v>
+        <v>0.1217991168934175</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1071516666666667</v>
+        <v>0.04598133333333334</v>
       </c>
       <c r="N16">
-        <v>0.321455</v>
+        <v>0.137944</v>
       </c>
       <c r="O16">
-        <v>0.04355636342203115</v>
+        <v>0.01496787950826614</v>
       </c>
       <c r="P16">
-        <v>0.05433653577813797</v>
+        <v>0.01645079745414774</v>
       </c>
       <c r="Q16">
-        <v>8.849623183003889</v>
+        <v>3.015511354796445</v>
       </c>
       <c r="R16">
-        <v>79.64660864703499</v>
+        <v>27.13960219316801</v>
       </c>
       <c r="S16">
-        <v>0.004052758794641268</v>
+        <v>0.001480403747041794</v>
       </c>
       <c r="T16">
-        <v>0.006114069122830186</v>
+        <v>0.002003692602107676</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>82.58969233333333</v>
+        <v>65.58120733333334</v>
       </c>
       <c r="H17">
-        <v>247.769077</v>
+        <v>196.743622</v>
       </c>
       <c r="I17">
-        <v>0.09304630773172745</v>
+        <v>0.09890537575641412</v>
       </c>
       <c r="J17">
-        <v>0.1125222474210465</v>
+        <v>0.1217991168934175</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.7379140000000001</v>
+        <v>0.5315415</v>
       </c>
       <c r="N17">
-        <v>1.475828</v>
+        <v>1.063083</v>
       </c>
       <c r="O17">
-        <v>0.29995660691112</v>
+        <v>0.1730278038691726</v>
       </c>
       <c r="P17">
-        <v>0.2494637847424299</v>
+        <v>0.1267801652115913</v>
       </c>
       <c r="Q17">
-        <v>60.94409022845934</v>
+        <v>34.859133317771</v>
       </c>
       <c r="R17">
-        <v>365.664541370756</v>
+        <v>209.154799906626</v>
       </c>
       <c r="S17">
-        <v>0.02790985475281688</v>
+        <v>0.01711337995798764</v>
       </c>
       <c r="T17">
-        <v>0.02807022570937839</v>
+        <v>0.01544171216237339</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>82.58969233333333</v>
+        <v>65.58120733333334</v>
       </c>
       <c r="H18">
-        <v>247.769077</v>
+        <v>196.743622</v>
       </c>
       <c r="I18">
-        <v>0.09304630773172745</v>
+        <v>0.09890537575641412</v>
       </c>
       <c r="J18">
-        <v>0.1125222474210465</v>
+        <v>0.1217991168934175</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1998293333333333</v>
+        <v>1.667958333333333</v>
       </c>
       <c r="N18">
-        <v>0.599488</v>
+        <v>5.003875</v>
       </c>
       <c r="O18">
-        <v>0.08122915243236724</v>
+        <v>0.5429550982603464</v>
       </c>
       <c r="P18">
-        <v>0.1013333162046457</v>
+        <v>0.5967474780408973</v>
       </c>
       <c r="Q18">
-        <v>16.50384315917511</v>
+        <v>109.3867212816944</v>
       </c>
       <c r="R18">
-        <v>148.534588432576</v>
+        <v>984.4804915352501</v>
       </c>
       <c r="S18">
-        <v>0.007558072714009439</v>
+        <v>0.05370117801230031</v>
       </c>
       <c r="T18">
-        <v>0.01140225247797428</v>
+        <v>0.07268331583375534</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>82.58969233333333</v>
+        <v>65.58120733333334</v>
       </c>
       <c r="H19">
-        <v>247.769077</v>
+        <v>196.743622</v>
       </c>
       <c r="I19">
-        <v>0.09304630773172745</v>
+        <v>0.09890537575641412</v>
       </c>
       <c r="J19">
-        <v>0.1125222474210465</v>
+        <v>0.1217991168934175</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2805203333333333</v>
+        <v>0.118945</v>
       </c>
       <c r="N19">
-        <v>0.841561</v>
+        <v>0.356835</v>
       </c>
       <c r="O19">
-        <v>0.1140294497139816</v>
+        <v>0.0387190692189015</v>
       </c>
       <c r="P19">
-        <v>0.1422516662860605</v>
+        <v>0.04255509706511925</v>
       </c>
       <c r="Q19">
-        <v>23.16808802324411</v>
+        <v>7.800556706263334</v>
       </c>
       <c r="R19">
-        <v>208.512792209197</v>
+        <v>70.20501035637001</v>
       </c>
       <c r="S19">
-        <v>0.01061001926856667</v>
+        <v>0.003829524090034061</v>
       </c>
       <c r="T19">
-        <v>0.01600647718989624</v>
+        <v>0.005183173241845187</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>260.790245</v>
+        <v>137.8159335</v>
       </c>
       <c r="H20">
-        <v>521.5804899999999</v>
+        <v>275.631867</v>
       </c>
       <c r="I20">
-        <v>0.2938086909413146</v>
+        <v>0.2078451623916705</v>
       </c>
       <c r="J20">
-        <v>0.236871403229107</v>
+        <v>0.1706368808656166</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.7262925</v>
+        <v>0.299213</v>
       </c>
       <c r="N20">
-        <v>1.452585</v>
+        <v>0.598426</v>
       </c>
       <c r="O20">
-        <v>0.2952325527432663</v>
+        <v>0.09740004925129409</v>
       </c>
       <c r="P20">
-        <v>0.2455349483544712</v>
+        <v>0.07136653219636822</v>
       </c>
       <c r="Q20">
-        <v>189.4099990166625</v>
+        <v>41.2363189103355</v>
       </c>
       <c r="R20">
-        <v>757.6399960666499</v>
+        <v>164.945275641342</v>
       </c>
       <c r="S20">
-        <v>0.08674188984476168</v>
+        <v>0.02024412905359193</v>
       </c>
       <c r="T20">
-        <v>0.05816020775850992</v>
+        <v>0.01217776245218387</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>260.790245</v>
+        <v>137.8159335</v>
       </c>
       <c r="H21">
-        <v>521.5804899999999</v>
+        <v>275.631867</v>
       </c>
       <c r="I21">
-        <v>0.2938086909413146</v>
+        <v>0.2078451623916705</v>
       </c>
       <c r="J21">
-        <v>0.236871403229107</v>
+        <v>0.1706368808656166</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.225084</v>
       </c>
       <c r="O21">
-        <v>0.1659958747772335</v>
+        <v>0.1329300998920193</v>
       </c>
       <c r="P21">
-        <v>0.2070797486342548</v>
+        <v>0.1460999300318762</v>
       </c>
       <c r="Q21">
-        <v>106.4966521685267</v>
+        <v>56.278698358638</v>
       </c>
       <c r="R21">
-        <v>638.97991301116</v>
+        <v>337.672190151828</v>
       </c>
       <c r="S21">
-        <v>0.04877103066995736</v>
+        <v>0.02762887819879774</v>
       </c>
       <c r="T21">
-        <v>0.0490512706393267</v>
+        <v>0.02493003635532418</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>260.790245</v>
+        <v>137.8159335</v>
       </c>
       <c r="H22">
-        <v>521.5804899999999</v>
+        <v>275.631867</v>
       </c>
       <c r="I22">
-        <v>0.2938086909413146</v>
+        <v>0.2078451623916705</v>
       </c>
       <c r="J22">
-        <v>0.236871403229107</v>
+        <v>0.1706368808656166</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.1071516666666667</v>
+        <v>0.04598133333333334</v>
       </c>
       <c r="N22">
-        <v>0.321455</v>
+        <v>0.137944</v>
       </c>
       <c r="O22">
-        <v>0.04355636342203115</v>
+        <v>0.01496787950826614</v>
       </c>
       <c r="P22">
-        <v>0.05433653577813797</v>
+        <v>0.01645079745414774</v>
       </c>
       <c r="Q22">
-        <v>27.94410940215833</v>
+        <v>6.336960376908001</v>
       </c>
       <c r="R22">
-        <v>167.66465641295</v>
+        <v>38.021762261448</v>
       </c>
       <c r="S22">
-        <v>0.01279723811919113</v>
+        <v>0.003111001347054534</v>
       </c>
       <c r="T22">
-        <v>0.01287077147637612</v>
+        <v>0.002807112765327797</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>260.790245</v>
+        <v>137.8159335</v>
       </c>
       <c r="H23">
-        <v>521.5804899999999</v>
+        <v>275.631867</v>
       </c>
       <c r="I23">
-        <v>0.2938086909413146</v>
+        <v>0.2078451623916705</v>
       </c>
       <c r="J23">
-        <v>0.236871403229107</v>
+        <v>0.1706368808656166</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.7379140000000001</v>
+        <v>0.5315415</v>
       </c>
       <c r="N23">
-        <v>1.475828</v>
+        <v>1.063083</v>
       </c>
       <c r="O23">
-        <v>0.29995660691112</v>
+        <v>0.1730278038691726</v>
       </c>
       <c r="P23">
-        <v>0.2494637847424299</v>
+        <v>0.1267801652115913</v>
       </c>
       <c r="Q23">
-        <v>192.44077284893</v>
+        <v>73.25488801649026</v>
       </c>
       <c r="R23">
-        <v>769.76309139572</v>
+        <v>293.019552065961</v>
       </c>
       <c r="S23">
-        <v>0.08812985801575464</v>
+        <v>0.03596299199346228</v>
       </c>
       <c r="T23">
-        <v>0.05909083674678328</v>
+        <v>0.02163337194733349</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>260.790245</v>
+        <v>137.8159335</v>
       </c>
       <c r="H24">
-        <v>521.5804899999999</v>
+        <v>275.631867</v>
       </c>
       <c r="I24">
-        <v>0.2938086909413146</v>
+        <v>0.2078451623916705</v>
       </c>
       <c r="J24">
-        <v>0.236871403229107</v>
+        <v>0.1706368808656166</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1998293333333333</v>
+        <v>1.667958333333333</v>
       </c>
       <c r="N24">
-        <v>0.599488</v>
+        <v>5.003875</v>
       </c>
       <c r="O24">
-        <v>0.08122915243236724</v>
+        <v>0.5429550982603464</v>
       </c>
       <c r="P24">
-        <v>0.1013333162046457</v>
+        <v>0.5967474780408973</v>
       </c>
       <c r="Q24">
-        <v>52.11354079818666</v>
+        <v>229.8712347474375</v>
       </c>
       <c r="R24">
-        <v>312.68124478912</v>
+        <v>1379.227408484625</v>
       </c>
       <c r="S24">
-        <v>0.02386583094242632</v>
+        <v>0.1128505905693071</v>
       </c>
       <c r="T24">
-        <v>0.02400296480325323</v>
+        <v>0.1018271283173217</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>260.790245</v>
+        <v>137.8159335</v>
       </c>
       <c r="H25">
-        <v>521.5804899999999</v>
+        <v>275.631867</v>
       </c>
       <c r="I25">
-        <v>0.2938086909413146</v>
+        <v>0.2078451623916705</v>
       </c>
       <c r="J25">
-        <v>0.236871403229107</v>
+        <v>0.1706368808656166</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.2805203333333333</v>
+        <v>0.118945</v>
       </c>
       <c r="N25">
-        <v>0.841561</v>
+        <v>0.356835</v>
       </c>
       <c r="O25">
-        <v>0.1140294497139816</v>
+        <v>0.0387190692189015</v>
       </c>
       <c r="P25">
-        <v>0.1422516662860605</v>
+        <v>0.04255509706511925</v>
       </c>
       <c r="Q25">
-        <v>73.15696645748166</v>
+        <v>16.3925162101575</v>
       </c>
       <c r="R25">
-        <v>438.94179874489</v>
+        <v>98.355097260945</v>
       </c>
       <c r="S25">
-        <v>0.03350284334922339</v>
+        <v>0.008047571229456913</v>
       </c>
       <c r="T25">
-        <v>0.0336953518048578</v>
+        <v>0.007261469028125503</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>122.4736406666667</v>
+        <v>39.78016766666667</v>
       </c>
       <c r="H26">
-        <v>367.420922</v>
+        <v>119.340503</v>
       </c>
       <c r="I26">
-        <v>0.1379799311093492</v>
+        <v>0.05999390055030331</v>
       </c>
       <c r="J26">
-        <v>0.166861128892824</v>
+        <v>0.07388075774581522</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.7262925</v>
+        <v>0.299213</v>
       </c>
       <c r="N26">
-        <v>1.452585</v>
+        <v>0.598426</v>
       </c>
       <c r="O26">
-        <v>0.2952325527432663</v>
+        <v>0.09740004925129409</v>
       </c>
       <c r="P26">
-        <v>0.2455349483544712</v>
+        <v>0.07136653219636822</v>
       </c>
       <c r="Q26">
-        <v>88.951686663895</v>
+        <v>11.90274330804633</v>
       </c>
       <c r="R26">
-        <v>533.7101199833701</v>
+        <v>71.41645984827801</v>
       </c>
       <c r="S26">
-        <v>0.04073616728875318</v>
+        <v>0.005843408868376782</v>
       </c>
       <c r="T26">
-        <v>0.04097023866506831</v>
+        <v>0.005272613476358803</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>122.4736406666667</v>
+        <v>39.78016766666667</v>
       </c>
       <c r="H27">
-        <v>367.420922</v>
+        <v>119.340503</v>
       </c>
       <c r="I27">
-        <v>0.1379799311093492</v>
+        <v>0.05999390055030331</v>
       </c>
       <c r="J27">
-        <v>0.166861128892824</v>
+        <v>0.07388075774581522</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.225084</v>
       </c>
       <c r="O27">
-        <v>0.1659958747772335</v>
+        <v>0.1329300998920193</v>
       </c>
       <c r="P27">
-        <v>0.2070797486342548</v>
+        <v>0.1460999300318762</v>
       </c>
       <c r="Q27">
-        <v>50.01349920082756</v>
+        <v>16.24468230858356</v>
       </c>
       <c r="R27">
-        <v>450.121492807448</v>
+        <v>146.202140777252</v>
       </c>
       <c r="S27">
-        <v>0.02290409936619884</v>
+        <v>0.007974995193063692</v>
       </c>
       <c r="T27">
-        <v>0.03455356062795398</v>
+        <v>0.0107939735373656</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>122.4736406666667</v>
+        <v>39.78016766666667</v>
       </c>
       <c r="H28">
-        <v>367.420922</v>
+        <v>119.340503</v>
       </c>
       <c r="I28">
-        <v>0.1379799311093492</v>
+        <v>0.05999390055030331</v>
       </c>
       <c r="J28">
-        <v>0.166861128892824</v>
+        <v>0.07388075774581522</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.1071516666666667</v>
+        <v>0.04598133333333334</v>
       </c>
       <c r="N28">
-        <v>0.321455</v>
+        <v>0.137944</v>
       </c>
       <c r="O28">
-        <v>0.04355636342203115</v>
+        <v>0.01496787950826614</v>
       </c>
       <c r="P28">
-        <v>0.05433653577813797</v>
+        <v>0.01645079745414774</v>
       </c>
       <c r="Q28">
-        <v>13.12325472016778</v>
+        <v>1.829145149536889</v>
       </c>
       <c r="R28">
-        <v>118.10929248151</v>
+        <v>16.462306345832</v>
       </c>
       <c r="S28">
-        <v>0.006009904024345634</v>
+        <v>0.0008979814746678417</v>
       </c>
       <c r="T28">
-        <v>0.009066655700065422</v>
+        <v>0.001215397381435363</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>122.4736406666667</v>
+        <v>39.78016766666667</v>
       </c>
       <c r="H29">
-        <v>367.420922</v>
+        <v>119.340503</v>
       </c>
       <c r="I29">
-        <v>0.1379799311093492</v>
+        <v>0.05999390055030331</v>
       </c>
       <c r="J29">
-        <v>0.166861128892824</v>
+        <v>0.07388075774581522</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.7379140000000001</v>
+        <v>0.5315415</v>
       </c>
       <c r="N29">
-        <v>1.475828</v>
+        <v>1.063083</v>
       </c>
       <c r="O29">
-        <v>0.29995660691112</v>
+        <v>0.1730278038691726</v>
       </c>
       <c r="P29">
-        <v>0.2494637847424299</v>
+        <v>0.1267801652115913</v>
       </c>
       <c r="Q29">
-        <v>90.37501407890268</v>
+        <v>21.1448099917915</v>
       </c>
       <c r="R29">
-        <v>542.2500844734161</v>
+        <v>126.868859950749</v>
       </c>
       <c r="S29">
-        <v>0.04138799195739047</v>
+        <v>0.01038061285776453</v>
       </c>
       <c r="T29">
-        <v>0.0416258087399983</v>
+        <v>0.009366614672972005</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>122.4736406666667</v>
+        <v>39.78016766666667</v>
       </c>
       <c r="H30">
-        <v>367.420922</v>
+        <v>119.340503</v>
       </c>
       <c r="I30">
-        <v>0.1379799311093492</v>
+        <v>0.05999390055030331</v>
       </c>
       <c r="J30">
-        <v>0.166861128892824</v>
+        <v>0.07388075774581522</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.1998293333333333</v>
+        <v>1.667958333333333</v>
       </c>
       <c r="N30">
-        <v>0.599488</v>
+        <v>5.003875</v>
       </c>
       <c r="O30">
-        <v>0.08122915243236724</v>
+        <v>0.5429550982603464</v>
       </c>
       <c r="P30">
-        <v>0.1013333162046457</v>
+        <v>0.5967474780408973</v>
       </c>
       <c r="Q30">
-        <v>24.47382596532622</v>
+        <v>66.35166216101389</v>
       </c>
       <c r="R30">
-        <v>220.264433687936</v>
+        <v>597.164959449125</v>
       </c>
       <c r="S30">
-        <v>0.01120799285668885</v>
+        <v>0.03257399416831138</v>
       </c>
       <c r="T30">
-        <v>0.01690859153636067</v>
+        <v>0.04408815586056573</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>122.4736406666667</v>
+        <v>39.78016766666667</v>
       </c>
       <c r="H31">
-        <v>367.420922</v>
+        <v>119.340503</v>
       </c>
       <c r="I31">
-        <v>0.1379799311093492</v>
+        <v>0.05999390055030331</v>
       </c>
       <c r="J31">
-        <v>0.166861128892824</v>
+        <v>0.07388075774581522</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.2805203333333333</v>
+        <v>0.118945</v>
       </c>
       <c r="N31">
-        <v>0.841561</v>
+        <v>0.356835</v>
       </c>
       <c r="O31">
-        <v>0.1140294497139816</v>
+        <v>0.0387190692189015</v>
       </c>
       <c r="P31">
-        <v>0.1422516662860605</v>
+        <v>0.04255509706511925</v>
       </c>
       <c r="Q31">
-        <v>34.35634650436022</v>
+        <v>4.731652043111668</v>
       </c>
       <c r="R31">
-        <v>309.207118539242</v>
+        <v>42.58486838800501</v>
       </c>
       <c r="S31">
-        <v>0.01573377561597218</v>
+        <v>0.002322907988119086</v>
       </c>
       <c r="T31">
-        <v>0.02373627362337732</v>
+        <v>0.003144002817117728</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>104.1027373333333</v>
+        <v>66.258798</v>
       </c>
       <c r="H32">
-        <v>312.308212</v>
+        <v>198.776394</v>
       </c>
       <c r="I32">
-        <v>0.1172831022851878</v>
+        <v>0.09992727459330304</v>
       </c>
       <c r="J32">
-        <v>0.1418321540677518</v>
+        <v>0.1230575558299827</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.7262925</v>
+        <v>0.299213</v>
       </c>
       <c r="N32">
-        <v>1.452585</v>
+        <v>0.598426</v>
       </c>
       <c r="O32">
-        <v>0.2952325527432663</v>
+        <v>0.09740004925129409</v>
       </c>
       <c r="P32">
-        <v>0.2455349483544712</v>
+        <v>0.07136653219636822</v>
       </c>
       <c r="Q32">
-        <v>75.60903735467001</v>
+        <v>19.825493725974</v>
       </c>
       <c r="R32">
-        <v>453.65422412802</v>
+        <v>118.952962355844</v>
       </c>
       <c r="S32">
-        <v>0.03462578968130561</v>
+        <v>0.009732921466935305</v>
       </c>
       <c r="T32">
-        <v>0.03482475062402884</v>
+        <v>0.008782191020146841</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>104.1027373333333</v>
+        <v>66.258798</v>
       </c>
       <c r="H33">
-        <v>312.308212</v>
+        <v>198.776394</v>
       </c>
       <c r="I33">
-        <v>0.1172831022851878</v>
+        <v>0.09992727459330304</v>
       </c>
       <c r="J33">
-        <v>0.1418321540677518</v>
+        <v>0.1230575558299827</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.225084</v>
       </c>
       <c r="O33">
-        <v>0.1659958747772335</v>
+        <v>0.1329300998920193</v>
       </c>
       <c r="P33">
-        <v>0.2070797486342548</v>
+        <v>0.1460999300318762</v>
       </c>
       <c r="Q33">
-        <v>42.51153262108978</v>
+        <v>27.057531096344</v>
       </c>
       <c r="R33">
-        <v>382.603793589808</v>
+        <v>243.517779867096</v>
       </c>
       <c r="S33">
-        <v>0.01946851116041751</v>
+        <v>0.01328334259362502</v>
       </c>
       <c r="T33">
-        <v>0.02937056681260494</v>
+        <v>0.01797870029665418</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>104.1027373333333</v>
+        <v>66.258798</v>
       </c>
       <c r="H34">
-        <v>312.308212</v>
+        <v>198.776394</v>
       </c>
       <c r="I34">
-        <v>0.1172831022851878</v>
+        <v>0.09992727459330304</v>
       </c>
       <c r="J34">
-        <v>0.1418321540677518</v>
+        <v>0.1230575558299827</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.1071516666666667</v>
+        <v>0.04598133333333334</v>
       </c>
       <c r="N34">
-        <v>0.321455</v>
+        <v>0.137944</v>
       </c>
       <c r="O34">
-        <v>0.04355636342203115</v>
+        <v>0.01496787950826614</v>
       </c>
       <c r="P34">
-        <v>0.05433653577813797</v>
+        <v>0.01645079745414774</v>
       </c>
       <c r="Q34">
-        <v>11.15478180982889</v>
+        <v>3.046667877104</v>
       </c>
       <c r="R34">
-        <v>100.39303628846</v>
+        <v>27.420010893936</v>
       </c>
       <c r="S34">
-        <v>0.005108425426396892</v>
+        <v>0.001495699405701984</v>
       </c>
       <c r="T34">
-        <v>0.007706667913992771</v>
+        <v>0.002024394926161523</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>104.1027373333333</v>
+        <v>66.258798</v>
       </c>
       <c r="H35">
-        <v>312.308212</v>
+        <v>198.776394</v>
       </c>
       <c r="I35">
-        <v>0.1172831022851878</v>
+        <v>0.09992727459330304</v>
       </c>
       <c r="J35">
-        <v>0.1418321540677518</v>
+        <v>0.1230575558299827</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.7379140000000001</v>
+        <v>0.5315415</v>
       </c>
       <c r="N35">
-        <v>1.475828</v>
+        <v>1.063083</v>
       </c>
       <c r="O35">
-        <v>0.29995660691112</v>
+        <v>0.1730278038691726</v>
       </c>
       <c r="P35">
-        <v>0.2494637847424299</v>
+        <v>0.1267801652115913</v>
       </c>
       <c r="Q35">
-        <v>76.81886731658935</v>
+        <v>35.219300877117</v>
       </c>
       <c r="R35">
-        <v>460.9132038995361</v>
+        <v>211.315805262702</v>
       </c>
       <c r="S35">
-        <v>0.03517984140947476</v>
+        <v>0.01729019686951099</v>
       </c>
       <c r="T35">
-        <v>0.03538198595191278</v>
+        <v>0.01560125725865982</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>104.1027373333333</v>
+        <v>66.258798</v>
       </c>
       <c r="H36">
-        <v>312.308212</v>
+        <v>198.776394</v>
       </c>
       <c r="I36">
-        <v>0.1172831022851878</v>
+        <v>0.09992727459330304</v>
       </c>
       <c r="J36">
-        <v>0.1418321540677518</v>
+        <v>0.1230575558299827</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.1998293333333333</v>
+        <v>1.667958333333333</v>
       </c>
       <c r="N36">
-        <v>0.599488</v>
+        <v>5.003875</v>
       </c>
       <c r="O36">
-        <v>0.08122915243236724</v>
+        <v>0.5429550982603464</v>
       </c>
       <c r="P36">
-        <v>0.1013333162046457</v>
+        <v>0.5967474780408973</v>
       </c>
       <c r="Q36">
-        <v>20.80278059949511</v>
+        <v>110.51691428075</v>
       </c>
       <c r="R36">
-        <v>187.225025395456</v>
+        <v>994.65222852675</v>
       </c>
       <c r="S36">
-        <v>0.00952680699326444</v>
+        <v>0.05425602319569547</v>
       </c>
       <c r="T36">
-        <v>0.01437232251613351</v>
+        <v>0.07343428609541909</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>104.1027373333333</v>
+        <v>66.258798</v>
       </c>
       <c r="H37">
-        <v>312.308212</v>
+        <v>198.776394</v>
       </c>
       <c r="I37">
-        <v>0.1172831022851878</v>
+        <v>0.09992727459330304</v>
       </c>
       <c r="J37">
-        <v>0.1418321540677518</v>
+        <v>0.1230575558299827</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.2805203333333333</v>
+        <v>0.118945</v>
       </c>
       <c r="N37">
-        <v>0.841561</v>
+        <v>0.356835</v>
       </c>
       <c r="O37">
-        <v>0.1140294497139816</v>
+        <v>0.0387190692189015</v>
       </c>
       <c r="P37">
-        <v>0.1422516662860605</v>
+        <v>0.04255509706511925</v>
       </c>
       <c r="Q37">
-        <v>29.20293457765911</v>
+        <v>7.881152728110001</v>
       </c>
       <c r="R37">
-        <v>262.826411198932</v>
+        <v>70.93037455299</v>
       </c>
       <c r="S37">
-        <v>0.01337372761432858</v>
+        <v>0.003869091061834278</v>
       </c>
       <c r="T37">
-        <v>0.02017586024907894</v>
+        <v>0.005236726232941245</v>
       </c>
     </row>
   </sheetData>
